--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vasp-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vasp-Cxcr2.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>86.97999399999999</v>
+        <v>14.062694</v>
       </c>
       <c r="H2">
-        <v>260.939982</v>
+        <v>42.188082</v>
       </c>
       <c r="I2">
-        <v>0.6863910615305753</v>
+        <v>0.2613715759657495</v>
       </c>
       <c r="J2">
-        <v>0.6863910615305753</v>
+        <v>0.2613715759657494</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>157.26769</v>
+        <v>0.01650666666666667</v>
       </c>
       <c r="N2">
-        <v>471.80307</v>
+        <v>0.04952</v>
       </c>
       <c r="O2">
-        <v>0.9999730784752147</v>
+        <v>0.795859985214233</v>
       </c>
       <c r="P2">
-        <v>0.9999730784752147</v>
+        <v>0.795859985214233</v>
       </c>
       <c r="Q2">
-        <v>13679.14273259386</v>
+        <v>0.2321282022933333</v>
       </c>
       <c r="R2">
-        <v>123112.2845933447</v>
+        <v>2.08915382064</v>
       </c>
       <c r="S2">
-        <v>0.6863725828365999</v>
+        <v>0.2080151785835222</v>
       </c>
       <c r="T2">
-        <v>0.6863725828365999</v>
+        <v>0.2080151785835221</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>86.97999399999999</v>
+        <v>14.062694</v>
       </c>
       <c r="H3">
-        <v>260.939982</v>
+        <v>42.188082</v>
       </c>
       <c r="I3">
-        <v>0.6863910615305753</v>
+        <v>0.2613715759657495</v>
       </c>
       <c r="J3">
-        <v>0.6863910615305753</v>
+        <v>0.2613715759657494</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.012702</v>
       </c>
       <c r="O3">
-        <v>2.692152478531388E-05</v>
+        <v>0.2041400147857671</v>
       </c>
       <c r="P3">
-        <v>2.692152478531388E-05</v>
+        <v>0.2041400147857671</v>
       </c>
       <c r="Q3">
-        <v>0.3682732945959999</v>
+        <v>0.059541446396</v>
       </c>
       <c r="R3">
-        <v>3.314459651364</v>
+        <v>0.535873017564</v>
       </c>
       <c r="S3">
-        <v>1.847869397541328E-05</v>
+        <v>0.05335639738222735</v>
       </c>
       <c r="T3">
-        <v>1.847869397541328E-05</v>
+        <v>0.05335639738222734</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,40 +664,40 @@
         <v>28.233908</v>
       </c>
       <c r="I4">
-        <v>0.07426804407182262</v>
+        <v>0.1749200409165788</v>
       </c>
       <c r="J4">
-        <v>0.07426804407182262</v>
+        <v>0.1749200409165788</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>157.26769</v>
+        <v>0.01650666666666667</v>
       </c>
       <c r="N4">
-        <v>471.80307</v>
+        <v>0.04952</v>
       </c>
       <c r="O4">
-        <v>0.9999730784752147</v>
+        <v>0.795859985214233</v>
       </c>
       <c r="P4">
-        <v>0.9999730784752147</v>
+        <v>0.795859985214233</v>
       </c>
       <c r="Q4">
-        <v>1480.093830277506</v>
+        <v>0.1553492360177778</v>
       </c>
       <c r="R4">
-        <v>13320.84447249756</v>
+        <v>1.39814312416</v>
       </c>
       <c r="S4">
-        <v>0.07426604466283339</v>
+        <v>0.1392118611775414</v>
       </c>
       <c r="T4">
-        <v>0.07426604466283339</v>
+        <v>0.1392118611775414</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>28.233908</v>
       </c>
       <c r="I5">
-        <v>0.07426804407182262</v>
+        <v>0.1749200409165788</v>
       </c>
       <c r="J5">
-        <v>0.07426804407182262</v>
+        <v>0.1749200409165788</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>0.012702</v>
       </c>
       <c r="O5">
-        <v>2.692152478531388E-05</v>
+        <v>0.2041400147857671</v>
       </c>
       <c r="P5">
-        <v>2.692152478531388E-05</v>
+        <v>0.2041400147857671</v>
       </c>
       <c r="Q5">
         <v>0.03984745549066666</v>
@@ -756,10 +756,10 @@
         <v>0.358627099416</v>
       </c>
       <c r="S5">
-        <v>1.999408989236356E-06</v>
+        <v>0.03570817973903738</v>
       </c>
       <c r="T5">
-        <v>1.999408989236356E-06</v>
+        <v>0.03570817973903738</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,43 +785,43 @@
         <v>30.329459</v>
       </c>
       <c r="H6">
-        <v>90.98837700000001</v>
+        <v>90.988377</v>
       </c>
       <c r="I6">
-        <v>0.2393408943976021</v>
+        <v>0.5637083831176718</v>
       </c>
       <c r="J6">
-        <v>0.2393408943976021</v>
+        <v>0.5637083831176717</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>157.26769</v>
+        <v>0.01650666666666667</v>
       </c>
       <c r="N6">
-        <v>471.80307</v>
+        <v>0.04952</v>
       </c>
       <c r="O6">
-        <v>0.9999730784752147</v>
+        <v>0.795859985214233</v>
       </c>
       <c r="P6">
-        <v>0.9999730784752147</v>
+        <v>0.795859985214233</v>
       </c>
       <c r="Q6">
-        <v>4769.84395587971</v>
+        <v>0.5006382698933333</v>
       </c>
       <c r="R6">
-        <v>42928.5956029174</v>
+        <v>4.50574442904</v>
       </c>
       <c r="S6">
-        <v>0.2393344509757814</v>
+        <v>0.4486329454531695</v>
       </c>
       <c r="T6">
-        <v>0.2393344509757815</v>
+        <v>0.4486329454531693</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>30.329459</v>
       </c>
       <c r="H7">
-        <v>90.98837700000001</v>
+        <v>90.988377</v>
       </c>
       <c r="I7">
-        <v>0.2393408943976021</v>
+        <v>0.5637083831176718</v>
       </c>
       <c r="J7">
-        <v>0.2393408943976021</v>
+        <v>0.5637083831176717</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,10 +868,10 @@
         <v>0.012702</v>
       </c>
       <c r="O7">
-        <v>2.692152478531388E-05</v>
+        <v>0.2041400147857671</v>
       </c>
       <c r="P7">
-        <v>2.692152478531388E-05</v>
+        <v>0.2041400147857671</v>
       </c>
       <c r="Q7">
         <v>0.128414929406</v>
@@ -880,10 +880,10 @@
         <v>1.155734364654</v>
       </c>
       <c r="S7">
-        <v>6.443421820664236E-06</v>
+        <v>0.1150754376645024</v>
       </c>
       <c r="T7">
-        <v>6.443421820664236E-06</v>
+        <v>0.1150754376645024</v>
       </c>
     </row>
   </sheetData>
